--- a/biology/Histoire de la zoologie et de la botanique/William_Henry_Flower/William_Henry_Flower.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Henry_Flower/William_Henry_Flower.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir William Henry Flower est un zoologiste britannique, né le 30 novembre 1831 à Stratford-upon-Avon et mort le 1er juillet 1899 à South Kensington (Londres).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l’University College de Londres où, après avoir montré un grand talent en physiologie et en anatomie comparée, obtient son doctorat de médecine en 1851. Il rejoint alors le service de médecine des armées et est envoyé en Crimée comme chirurgien assistant et obtient une médaille avec quatre palmes (clasps).
 À son retour en Grande-Bretagne, il devient membre de l’équipe de chirurgie de l’hôpital du Middlesex à Londres. En 1861, il succède à John Thomas Quekett (1815-1861) au poste de conservateur de l’Hunterian Museum au Royal College of Surgeons of England. En 1870, il reçoit la chaire Hunterian, et en 1884, à la mort de Sir Richard Owen (1804-1892), il reçoit la direction du muséum d’histoire naturelle de South Kensington. Il succède à Albert Charles Lewis Günther (1830-1914) comme conservateur de la zoologie en 1894, fonction qu’il conserve jusqu’en 1898.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>An Introduction to the Osteology of the Mammalia (1870)
 Fashion in Deformity (1885)
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « William Henry Flower » (voir la liste des auteurs).</t>
         </is>
